--- a/data/food_alerts.xlsx
+++ b/data/food_alerts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>unit</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>resident_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +513,7 @@
       <c r="H2" t="n">
         <v>3</v>
       </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -536,12 +542,13 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>Served</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -576,6 +583,7 @@
       <c r="H4" t="n">
         <v>3</v>
       </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -610,6 +618,7 @@
       <c r="H5" t="n">
         <v>3</v>
       </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -644,20 +653,17 @@
       <c r="H6" t="n">
         <v>3</v>
       </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>509670</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -679,9 +685,82 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>484622</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:03:31.634Z</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Request for Apple</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>355108</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cappuccino</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2025-06-30T14:12:54.872Z</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Request for Cappuccino</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>John Doe</t>
         </is>
       </c>
     </row>
